--- a/dataset/Race/race.xlsx
+++ b/dataset/Race/race.xlsx
@@ -19,7 +19,7 @@
     <t>Geographic</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total_Pop</t>
   </si>
   <si>
     <t>White</t>
@@ -43,190 +43,190 @@
     <t>Two_or_more_races</t>
   </si>
   <si>
-    <t>Albany County, New York</t>
-  </si>
-  <si>
-    <t>Allegany County, New York</t>
-  </si>
-  <si>
-    <t>Bronx County, New York</t>
-  </si>
-  <si>
-    <t>Broome County, New York</t>
-  </si>
-  <si>
-    <t>Cattaraugus County, New York</t>
-  </si>
-  <si>
-    <t>Cayuga County, New York</t>
-  </si>
-  <si>
-    <t>Chautauqua County, New York</t>
-  </si>
-  <si>
-    <t>Chemung County, New York</t>
-  </si>
-  <si>
-    <t>Chenango County, New York</t>
-  </si>
-  <si>
-    <t>Clinton County, New York</t>
-  </si>
-  <si>
-    <t>Columbia County, New York</t>
-  </si>
-  <si>
-    <t>Cortland County, New York</t>
-  </si>
-  <si>
-    <t>Delaware County, New York</t>
-  </si>
-  <si>
-    <t>Dutchess County, New York</t>
-  </si>
-  <si>
-    <t>Erie County, New York</t>
-  </si>
-  <si>
-    <t>Essex County, New York</t>
-  </si>
-  <si>
-    <t>Franklin County, New York</t>
-  </si>
-  <si>
-    <t>Fulton County, New York</t>
-  </si>
-  <si>
-    <t>Genesee County, New York</t>
-  </si>
-  <si>
-    <t>Greene County, New York</t>
-  </si>
-  <si>
-    <t>Hamilton County, New York</t>
-  </si>
-  <si>
-    <t>Herkimer County, New York</t>
-  </si>
-  <si>
-    <t>Jefferson County, New York</t>
-  </si>
-  <si>
-    <t>Kings County, New York</t>
-  </si>
-  <si>
-    <t>Lewis County, New York</t>
-  </si>
-  <si>
-    <t>Livingston County, New York</t>
-  </si>
-  <si>
-    <t>Madison County, New York</t>
-  </si>
-  <si>
-    <t>Monroe County, New York</t>
-  </si>
-  <si>
-    <t>Montgomery County, New York</t>
-  </si>
-  <si>
-    <t>Nassau County, New York</t>
-  </si>
-  <si>
-    <t>New York County, New York</t>
-  </si>
-  <si>
-    <t>Niagara County, New York</t>
-  </si>
-  <si>
-    <t>Oneida County, New York</t>
-  </si>
-  <si>
-    <t>Onondaga County, New York</t>
-  </si>
-  <si>
-    <t>Ontario County, New York</t>
-  </si>
-  <si>
-    <t>Orange County, New York</t>
-  </si>
-  <si>
-    <t>Orleans County, New York</t>
-  </si>
-  <si>
-    <t>Oswego County, New York</t>
-  </si>
-  <si>
-    <t>Otsego County, New York</t>
-  </si>
-  <si>
-    <t>Putnam County, New York</t>
-  </si>
-  <si>
-    <t>Queens County, New York</t>
-  </si>
-  <si>
-    <t>Rensselaer County, New York</t>
-  </si>
-  <si>
-    <t>Richmond County, New York</t>
-  </si>
-  <si>
-    <t>Rockland County, New York</t>
-  </si>
-  <si>
-    <t>St. Lawrence County, New York</t>
-  </si>
-  <si>
-    <t>Saratoga County, New York</t>
-  </si>
-  <si>
-    <t>Schenectady County, New York</t>
-  </si>
-  <si>
-    <t>Schoharie County, New York</t>
-  </si>
-  <si>
-    <t>Schuyler County, New York</t>
-  </si>
-  <si>
-    <t>Seneca County, New York</t>
-  </si>
-  <si>
-    <t>Steuben County, New York</t>
-  </si>
-  <si>
-    <t>Suffolk County, New York</t>
-  </si>
-  <si>
-    <t>Sullivan County, New York</t>
-  </si>
-  <si>
-    <t>Tioga County, New York</t>
-  </si>
-  <si>
-    <t>Tompkins County, New York</t>
-  </si>
-  <si>
-    <t>Ulster County, New York</t>
-  </si>
-  <si>
-    <t>Warren County, New York</t>
-  </si>
-  <si>
-    <t>Washington County, New York</t>
-  </si>
-  <si>
-    <t>Wayne County, New York</t>
-  </si>
-  <si>
-    <t>Westchester County, New York</t>
-  </si>
-  <si>
-    <t>Wyoming County, New York</t>
-  </si>
-  <si>
-    <t>Yates County, New York</t>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Allegany</t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>Broome</t>
+  </si>
+  <si>
+    <t>Cattaraugus</t>
+  </si>
+  <si>
+    <t>Cayuga</t>
+  </si>
+  <si>
+    <t>Chautauqua</t>
+  </si>
+  <si>
+    <t>Chemung</t>
+  </si>
+  <si>
+    <t>Chenango</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Cortland</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Dutchess</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>Genesee</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Herkimer</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Oneida</t>
+  </si>
+  <si>
+    <t>Onondaga</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Orleans</t>
+  </si>
+  <si>
+    <t>Oswego</t>
+  </si>
+  <si>
+    <t>Otsego</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Rensselaer</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Rockland</t>
+  </si>
+  <si>
+    <t>St. Lawrence</t>
+  </si>
+  <si>
+    <t>Saratoga</t>
+  </si>
+  <si>
+    <t>Schenectady</t>
+  </si>
+  <si>
+    <t>Schoharie</t>
+  </si>
+  <si>
+    <t>Schuyler</t>
+  </si>
+  <si>
+    <t>Seneca</t>
+  </si>
+  <si>
+    <t>Steuben</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Tioga</t>
+  </si>
+  <si>
+    <t>Tompkins</t>
+  </si>
+  <si>
+    <t>Ulster</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Westchester</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Yates</t>
   </si>
 </sst>
 </file>
@@ -235,8 +235,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -248,47 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +273,51 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -326,45 +333,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +364,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +401,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,13 +485,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,84 +569,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,25 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,35 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +649,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,12 +674,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,130 +715,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,20 +1168,20 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="46.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="1" max="1" width="43.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="17.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="19.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="15.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="28.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="54.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="69.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="9.57142857142857" customWidth="1"/>
+    <col min="9" max="9" width="22.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
